--- a/main/alyukabond/report_template.xlsx
+++ b/main/alyukabond/report_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Накладная № ____             </t>
   </si>
@@ -56,10 +56,16 @@
     <t xml:space="preserve">Цвет</t>
   </si>
   <si>
+    <t xml:space="preserve">Размер дл. шр. (м)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ед.изм.</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во(шт)</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -119,7 +125,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -190,6 +196,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -204,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -241,13 +254,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -297,7 +303,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,59 +380,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,8 +468,8 @@
   </sheetPr>
   <dimension ref="B1:AM40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,12 +477,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="2.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="2.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="1.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="4.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="3.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.16"/>
@@ -934,15 +928,19 @@
       <c r="N15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
+      <c r="O15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -957,14 +955,14 @@
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -979,14 +977,14 @@
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1001,14 +999,14 @@
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1023,14 +1021,14 @@
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1045,14 +1043,14 @@
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1067,14 +1065,14 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1089,14 +1087,14 @@
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1111,14 +1109,14 @@
       <c r="M23" s="24"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1133,14 +1131,14 @@
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1155,14 +1153,14 @@
       <c r="M25" s="24"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1177,10 +1175,10 @@
       <c r="M26" s="24"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="n">
@@ -1199,10 +1197,10 @@
       <c r="M27" s="24"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="3"/>
@@ -1525,7 +1523,7 @@
       <c r="AM35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="32"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1538,14 +1536,14 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="32"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1558,14 +1556,14 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="32"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1578,18 +1576,18 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1598,16 +1596,16 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1673,7 +1671,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/main/alyukabond/report_template.xlsx
+++ b/main/alyukabond/report_template.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Накладная № ____             </t>
+    <t xml:space="preserve">Накладная №:</t>
   </si>
   <si>
     <t xml:space="preserve">Дата: </t>
@@ -125,7 +125,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -155,6 +155,26 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -299,11 +319,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,11 +336,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,23 +356,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,99 +384,99 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +501,7 @@
   <dimension ref="B1:AM40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,9 +529,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -509,14 +539,16 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
       <c r="V1" s="0"/>
@@ -539,24 +571,24 @@
       <c r="AM1" s="0"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
@@ -579,26 +611,26 @@
       <c r="AM2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
@@ -621,107 +653,107 @@
       <c r="AM3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
       <c r="V8" s="0"/>
@@ -744,61 +776,61 @@
       <c r="AM8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
       <c r="V11" s="0"/>
@@ -821,68 +853,68 @@
       <c r="AM11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0"/>
       <c r="V14" s="0"/>
@@ -905,322 +937,322 @@
       <c r="AM14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0"/>
       <c r="V28" s="0"/>
@@ -1243,24 +1275,24 @@
       <c r="AM28" s="0"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0"/>
       <c r="V29" s="0"/>
@@ -1283,24 +1315,24 @@
       <c r="AM29" s="0"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
@@ -1323,24 +1355,24 @@
       <c r="AM30" s="0"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
       <c r="V31" s="0"/>
@@ -1363,24 +1395,24 @@
       <c r="AM31" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
@@ -1403,24 +1435,24 @@
       <c r="AM32" s="0"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0"/>
       <c r="V33" s="0"/>
@@ -1443,24 +1475,24 @@
       <c r="AM33" s="0"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0"/>
       <c r="V34" s="0"/>
@@ -1483,24 +1515,24 @@
       <c r="AM34" s="0"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0"/>
       <c r="V35" s="0"/>
@@ -1523,89 +1555,89 @@
       <c r="AM35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="29"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="29"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="29"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1616,10 +1648,9 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="D5:K5"/>
+  <mergeCells count="32">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="E5:J5"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="E12:K12"/>
